--- a/results/20250227_160246/benchmark_moves(R).xlsx
+++ b/results/20250227_160246/benchmark_moves(R).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>Epoch 40</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 50</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>115.2</v>
       </c>
+      <c r="F2" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>231.4</v>
       </c>
+      <c r="F3" t="n">
+        <v>230.8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,6 +522,9 @@
       <c r="E4" t="n">
         <v>467.4</v>
       </c>
+      <c r="F4" t="n">
+        <v>467.4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -530,6 +544,9 @@
       <c r="E5" t="n">
         <v>731.8</v>
       </c>
+      <c r="F5" t="n">
+        <v>725.8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -549,6 +566,9 @@
       <c r="E6" t="n">
         <v>970.8</v>
       </c>
+      <c r="F6" t="n">
+        <v>968.4000000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -568,6 +588,9 @@
       <c r="E7" t="n">
         <v>1209.4</v>
       </c>
+      <c r="F7" t="n">
+        <v>1206.6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -587,6 +610,9 @@
       <c r="E8" t="n">
         <v>165.4</v>
       </c>
+      <c r="F8" t="n">
+        <v>163.8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -606,6 +632,9 @@
       <c r="E9" t="n">
         <v>358.2</v>
       </c>
+      <c r="F9" t="n">
+        <v>358.6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -625,6 +654,9 @@
       <c r="E10" t="n">
         <v>710.6</v>
       </c>
+      <c r="F10" t="n">
+        <v>708.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -643,6 +675,9 @@
       </c>
       <c r="E11" t="n">
         <v>1074</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1071</v>
       </c>
     </row>
   </sheetData>

--- a/results/20250227_160246/benchmark_moves(R).xlsx
+++ b/results/20250227_160246/benchmark_moves(R).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,16 @@
           <t>Epoch 50</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 60</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 70</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +491,12 @@
       <c r="F2" t="n">
         <v>114</v>
       </c>
+      <c r="G2" t="n">
+        <v>116.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>113.8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +519,12 @@
       <c r="F3" t="n">
         <v>230.8</v>
       </c>
+      <c r="G3" t="n">
+        <v>233.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>231.2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,6 +547,12 @@
       <c r="F4" t="n">
         <v>467.4</v>
       </c>
+      <c r="G4" t="n">
+        <v>479</v>
+      </c>
+      <c r="H4" t="n">
+        <v>465.2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -547,6 +575,12 @@
       <c r="F5" t="n">
         <v>725.8</v>
       </c>
+      <c r="G5" t="n">
+        <v>752.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>724.8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -569,6 +603,12 @@
       <c r="F6" t="n">
         <v>968.4000000000001</v>
       </c>
+      <c r="G6" t="n">
+        <v>1010.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>960</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -591,6 +631,12 @@
       <c r="F7" t="n">
         <v>1206.6</v>
       </c>
+      <c r="G7" t="n">
+        <v>1250.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1200</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -613,6 +659,12 @@
       <c r="F8" t="n">
         <v>163.8</v>
       </c>
+      <c r="G8" t="n">
+        <v>166</v>
+      </c>
+      <c r="H8" t="n">
+        <v>161.4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -635,6 +687,12 @@
       <c r="F9" t="n">
         <v>358.6</v>
       </c>
+      <c r="G9" t="n">
+        <v>358.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>361</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -657,6 +715,12 @@
       <c r="F10" t="n">
         <v>708.2</v>
       </c>
+      <c r="G10" t="n">
+        <v>725.8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>705.4000000000001</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -678,6 +742,12 @@
       </c>
       <c r="F11" t="n">
         <v>1071</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1106</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1069</v>
       </c>
     </row>
   </sheetData>
